--- a/output/3Y_P24_KFSDIV.xlsx
+++ b/output/3Y_P24_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -3998,10 +4001,10 @@
         <v>246240.9387</v>
       </c>
       <c r="K22" s="1">
-        <v>174357.5328</v>
+        <v>174382.9378</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3387</v>
+        <v>13.3406</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -4051,10 +4054,10 @@
         <v>246374.3247</v>
       </c>
       <c r="K23" s="1">
-        <v>183969.8005</v>
+        <v>183995.2055</v>
       </c>
       <c r="L23" s="1">
-        <v>13.4324</v>
+        <v>13.4343</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -4104,10 +4107,10 @@
         <v>281259.3552</v>
       </c>
       <c r="K24" s="1">
-        <v>203877.5148</v>
+        <v>203902.9198</v>
       </c>
       <c r="L24" s="1">
-        <v>13.5443</v>
+        <v>13.546</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -4157,10 +4160,10 @@
         <v>301801.7039</v>
       </c>
       <c r="K25" s="1">
-        <v>201228.7552</v>
+        <v>201264.7436</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5217</v>
+        <v>13.5241</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -4210,10 +4213,10 @@
         <v>315219.7966</v>
       </c>
       <c r="K26" s="1">
-        <v>200684.2321</v>
+        <v>200722.3948</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5156</v>
+        <v>13.5182</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -4263,10 +4266,10 @@
         <v>345573.7629</v>
       </c>
       <c r="K27" s="1">
-        <v>207292.5175</v>
+        <v>207330.6802</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5931</v>
+        <v>13.5956</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -4316,10 +4319,10 @@
         <v>352266.0454</v>
       </c>
       <c r="K28" s="1">
-        <v>206933.3817</v>
+        <v>206972.9796</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5882</v>
+        <v>13.5908</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -4369,10 +4372,10 @@
         <v>368101.6995</v>
       </c>
       <c r="K29" s="1">
-        <v>220294.4704</v>
+        <v>220334.0682</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7526</v>
+        <v>13.755</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -4422,10 +4425,10 @@
         <v>360740.1697</v>
       </c>
       <c r="K30" s="1">
-        <v>238182.9749</v>
+        <v>238222.5727</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9232</v>
+        <v>13.9255</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -4475,10 +4478,10 @@
         <v>356477.1306</v>
       </c>
       <c r="K31" s="1">
-        <v>265582.4533</v>
+        <v>265622.0511</v>
       </c>
       <c r="L31" s="1">
-        <v>14.0639</v>
+        <v>14.066</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -4528,10 +4531,10 @@
         <v>332959.5026</v>
       </c>
       <c r="K32" s="1">
-        <v>289832.922</v>
+        <v>289872.5198</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1124</v>
+        <v>14.1143</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -4581,10 +4584,10 @@
         <v>371782.89</v>
       </c>
       <c r="K33" s="1">
-        <v>333427.9377</v>
+        <v>333467.5355</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9611</v>
+        <v>13.9627</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -4634,10 +4637,10 @@
         <v>395352.5234</v>
       </c>
       <c r="K34" s="1">
-        <v>323633.0138</v>
+        <v>323711.7555</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9641</v>
+        <v>13.9675</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -4687,10 +4690,10 @@
         <v>378322.5501</v>
       </c>
       <c r="K35" s="1">
-        <v>320049.0699</v>
+        <v>320142.1221</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9588</v>
+        <v>13.9629</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -4740,10 +4743,10 @@
         <v>374384.8497</v>
       </c>
       <c r="K36" s="1">
-        <v>357227.5678</v>
+        <v>357320.6199</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8834</v>
+        <v>13.8871</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -4793,10 +4796,10 @@
         <v>372281.0278</v>
       </c>
       <c r="K37" s="1">
-        <v>389399.4878</v>
+        <v>389492.54</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7482</v>
+        <v>13.7515</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -4846,10 +4849,10 @@
         <v>389577.1959</v>
       </c>
       <c r="K38" s="1">
-        <v>411462.8924</v>
+        <v>411555.9446</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6405</v>
+        <v>13.6435</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -6038,10 +6041,10 @@
         <v>247669.5183</v>
       </c>
       <c r="K22" s="1">
-        <v>183287.4108</v>
+        <v>183311.8613</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3674</v>
+        <v>13.3692</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -6091,10 +6094,10 @@
         <v>247291.4524</v>
       </c>
       <c r="K23" s="1">
-        <v>193931.8963</v>
+        <v>193956.3467</v>
       </c>
       <c r="L23" s="1">
-        <v>13.4648</v>
+        <v>13.4665</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -6144,10 +6147,10 @@
         <v>283492.4586</v>
       </c>
       <c r="K24" s="1">
-        <v>215457.6007</v>
+        <v>215482.0511</v>
       </c>
       <c r="L24" s="1">
-        <v>13.5765</v>
+        <v>13.5781</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -6197,10 +6200,10 @@
         <v>304635.4477</v>
       </c>
       <c r="K25" s="1">
-        <v>213284.3065</v>
+        <v>213317.4406</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5593</v>
+        <v>13.5614</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -6250,10 +6253,10 @@
         <v>318257.1895</v>
       </c>
       <c r="K26" s="1">
-        <v>213357.1283</v>
+        <v>213390.2624</v>
       </c>
       <c r="L26" s="1">
-        <v>13.56</v>
+        <v>13.5621</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -6303,10 +6306,10 @@
         <v>349850.8298</v>
       </c>
       <c r="K27" s="1">
-        <v>221037.3504</v>
+        <v>221070.4845</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6435</v>
+        <v>13.6456</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -6356,10 +6359,10 @@
         <v>356326.5664</v>
       </c>
       <c r="K28" s="1">
-        <v>221362.9529</v>
+        <v>221396.087</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6476</v>
+        <v>13.6497</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -6409,10 +6412,10 @@
         <v>372517.7772</v>
       </c>
       <c r="K29" s="1">
-        <v>236330.298</v>
+        <v>236363.4321</v>
       </c>
       <c r="L29" s="1">
-        <v>13.817</v>
+        <v>13.8189</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -6462,10 +6465,10 @@
         <v>363929.0657</v>
       </c>
       <c r="K30" s="1">
-        <v>256198.1596</v>
+        <v>256231.2937</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9897</v>
+        <v>13.9915</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -6515,10 +6518,10 @@
         <v>358618.3044</v>
       </c>
       <c r="K31" s="1">
-        <v>286326.5348</v>
+        <v>286359.6688</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1275</v>
+        <v>14.1291</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -6568,10 +6571,10 @@
         <v>332550.2799</v>
       </c>
       <c r="K32" s="1">
-        <v>313180.4454</v>
+        <v>313213.5795</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1721</v>
+        <v>14.1736</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -6621,10 +6624,10 @@
         <v>373615.2565</v>
       </c>
       <c r="K33" s="1">
-        <v>360946.1294</v>
+        <v>360979.2635</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0099</v>
+        <v>14.0112</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -6674,10 +6677,10 @@
         <v>398291.0796</v>
       </c>
       <c r="K34" s="1">
-        <v>351267.8688</v>
+        <v>351339.6805</v>
       </c>
       <c r="L34" s="1">
-        <v>14.014</v>
+        <v>14.0169</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -6727,10 +6730,10 @@
         <v>378982.6705</v>
       </c>
       <c r="K35" s="1">
-        <v>348310.669</v>
+        <v>348394.2886</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0104</v>
+        <v>14.0138</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -6780,10 +6783,10 @@
         <v>373804.9832</v>
       </c>
       <c r="K36" s="1">
-        <v>389573.0005</v>
+        <v>389656.6201</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9278</v>
+        <v>13.9307</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -6833,10 +6836,10 @@
         <v>370609.8523</v>
       </c>
       <c r="K37" s="1">
-        <v>425527.5083</v>
+        <v>425611.1279</v>
       </c>
       <c r="L37" s="1">
-        <v>13.785</v>
+        <v>13.7877</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -6886,10 +6889,10 @@
         <v>388367.1711</v>
       </c>
       <c r="K38" s="1">
-        <v>437734.9716</v>
+        <v>437818.5912</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7274</v>
+        <v>13.73</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -8078,10 +8081,10 @@
         <v>249114.1983</v>
       </c>
       <c r="K22" s="1">
-        <v>192834.6803</v>
+        <v>192857.98</v>
       </c>
       <c r="L22" s="1">
-        <v>13.3996</v>
+        <v>13.4012</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -8131,10 +8134,10 @@
         <v>248190.9595</v>
       </c>
       <c r="K23" s="1">
-        <v>204614.4894</v>
+        <v>204637.7891</v>
       </c>
       <c r="L23" s="1">
-        <v>13.5003</v>
+        <v>13.5018</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -8184,10 +8187,10 @@
         <v>285796.6422</v>
       </c>
       <c r="K24" s="1">
-        <v>227907.6081</v>
+        <v>227930.9079</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6115</v>
+        <v>13.6129</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -8237,10 +8240,10 @@
         <v>307584.0432</v>
       </c>
       <c r="K25" s="1">
-        <v>226290.2948</v>
+        <v>226320.0567</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5996</v>
+        <v>13.6014</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -8290,10 +8293,10 @@
         <v>321422.4744</v>
       </c>
       <c r="K26" s="1">
-        <v>227077.668</v>
+        <v>227107.4299</v>
       </c>
       <c r="L26" s="1">
-        <v>13.6073</v>
+        <v>13.609</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -8343,10 +8346,10 @@
         <v>354352.7604</v>
       </c>
       <c r="K27" s="1">
-        <v>235968.9303</v>
+        <v>235998.6922</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6967</v>
+        <v>13.6984</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -8396,10 +8399,10 @@
         <v>360592.0069</v>
       </c>
       <c r="K28" s="1">
-        <v>237096.3716</v>
+        <v>237126.1335</v>
       </c>
       <c r="L28" s="1">
-        <v>13.7098</v>
+        <v>13.7115</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -8449,10 +8452,10 @@
         <v>377166.3568</v>
       </c>
       <c r="K29" s="1">
-        <v>253872.1941</v>
+        <v>253901.956</v>
       </c>
       <c r="L29" s="1">
-        <v>13.884</v>
+        <v>13.8856</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -8502,10 +8505,10 @@
         <v>367238.296</v>
       </c>
       <c r="K30" s="1">
-        <v>275965.8152</v>
+        <v>275995.5771</v>
       </c>
       <c r="L30" s="1">
-        <v>14.0586</v>
+        <v>14.0601</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -8555,10 +8558,10 @@
         <v>360780.1112</v>
       </c>
       <c r="K31" s="1">
-        <v>309151.0374</v>
+        <v>309180.7993</v>
       </c>
       <c r="L31" s="1">
-        <v>14.193</v>
+        <v>14.1943</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -8608,10 +8611,10 @@
         <v>331909.8647</v>
       </c>
       <c r="K32" s="1">
-        <v>338940.7081</v>
+        <v>338970.47</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2333</v>
+        <v>14.2346</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -8661,10 +8664,10 @@
         <v>374275.6103</v>
       </c>
       <c r="K33" s="1">
-        <v>371752.8753</v>
+        <v>371782.6372</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1185</v>
+        <v>14.1196</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -8714,10 +8717,10 @@
         <v>400129.3442</v>
       </c>
       <c r="K34" s="1">
-        <v>383179.5476</v>
+        <v>383209.3095</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1107</v>
+        <v>14.1118</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -8767,10 +8770,10 @@
         <v>378292.1241</v>
       </c>
       <c r="K35" s="1">
-        <v>381020.9365</v>
+        <v>381059.3176</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1088</v>
+        <v>14.1102</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -8820,10 +8823,10 @@
         <v>372722.5453</v>
       </c>
       <c r="K36" s="1">
-        <v>412460.1954</v>
+        <v>412498.5765</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0409</v>
+        <v>14.0422</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -8873,10 +8876,10 @@
         <v>369551.5954</v>
       </c>
       <c r="K37" s="1">
-        <v>432182.3086</v>
+        <v>432220.6897</v>
       </c>
       <c r="L37" s="1">
-        <v>13.957</v>
+        <v>13.9583</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -8926,10 +8929,10 @@
         <v>387296.2126</v>
       </c>
       <c r="K38" s="1">
-        <v>442182.3086</v>
+        <v>442220.6897</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9052</v>
+        <v>13.9064</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2867</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0645</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8083</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5636</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.1788</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.5668</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.962</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2659</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4103</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.3976</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9013</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3527</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8804</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6268</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3636</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8711</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1252</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1934</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1176</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3311</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3637</v>
@@ -10118,10 +10121,10 @@
         <v>250046.1075</v>
       </c>
       <c r="K22" s="1">
-        <v>203512.4088</v>
+        <v>203519.6626</v>
       </c>
       <c r="L22" s="1">
-        <v>13.4659</v>
+        <v>13.4664</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6447</v>
@@ -10171,10 +10174,10 @@
         <v>248541.6086</v>
       </c>
       <c r="K23" s="1">
-        <v>216540.317</v>
+        <v>216547.5708</v>
       </c>
       <c r="L23" s="1">
-        <v>13.5682</v>
+        <v>13.5687</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.486</v>
@@ -10224,10 +10227,10 @@
         <v>287647.0455</v>
       </c>
       <c r="K24" s="1">
-        <v>241764.0787</v>
+        <v>241771.3325</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6757</v>
+        <v>13.6761</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.1958</v>
@@ -10277,10 +10280,10 @@
         <v>310126.0437</v>
       </c>
       <c r="K25" s="1">
-        <v>240793.1139</v>
+        <v>240804.2473</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6692</v>
+        <v>13.6698</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.4264</v>
@@ -10330,10 +10333,10 @@
         <v>324197.6113</v>
       </c>
       <c r="K26" s="1">
-        <v>242404.3209</v>
+        <v>242415.4543</v>
       </c>
       <c r="L26" s="1">
-        <v>13.6835</v>
+        <v>13.6842</v>
       </c>
       <c r="M26" s="1">
         <v>0.75</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>17.107</v>
@@ -10383,10 +10386,10 @@
         <v>358569.6658</v>
       </c>
       <c r="K27" s="1">
-        <v>252662.2942</v>
+        <v>252673.4276</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7779</v>
+        <v>13.7785</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.8894</v>
@@ -10436,10 +10439,10 @@
         <v>364552.2202</v>
       </c>
       <c r="K28" s="1">
-        <v>254724.6374</v>
+        <v>254735.7708</v>
       </c>
       <c r="L28" s="1">
-        <v>13.7998</v>
+        <v>13.8004</v>
       </c>
       <c r="M28" s="1">
         <v>1</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.4004</v>
@@ -10489,10 +10492,10 @@
         <v>381539.564</v>
       </c>
       <c r="K29" s="1">
-        <v>273536.0795</v>
+        <v>273547.2129</v>
       </c>
       <c r="L29" s="1">
-        <v>13.9772</v>
+        <v>13.9778</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3877</v>
@@ -10542,10 +10545,10 @@
         <v>370148.8995</v>
       </c>
       <c r="K30" s="1">
-        <v>298132.6558</v>
+        <v>298143.7893</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1517</v>
+        <v>14.1522</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6367</v>
@@ -10595,10 +10598,10 @@
         <v>362433.3137</v>
       </c>
       <c r="K31" s="1">
-        <v>334743.473</v>
+        <v>334754.6064</v>
       </c>
       <c r="L31" s="1">
-        <v>14.28</v>
+        <v>14.2805</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.0061</v>
@@ -10648,10 +10651,10 @@
         <v>330836.7631</v>
       </c>
       <c r="K32" s="1">
-        <v>364759.0965</v>
+        <v>364770.2299</v>
       </c>
       <c r="L32" s="1">
-        <v>14.311</v>
+        <v>14.3115</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.835</v>
@@ -10701,10 +10704,10 @@
         <v>373984.7917</v>
       </c>
       <c r="K33" s="1">
-        <v>374759.0965</v>
+        <v>374770.2299</v>
       </c>
       <c r="L33" s="1">
-        <v>14.2736</v>
+        <v>14.2741</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.4216</v>
@@ -10754,10 +10757,10 @@
         <v>400178.2689</v>
       </c>
       <c r="K34" s="1">
-        <v>396228.6956</v>
+        <v>396239.829</v>
       </c>
       <c r="L34" s="1">
-        <v>14.2507</v>
+        <v>14.2512</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2404</v>
@@ -10807,10 +10810,10 @@
         <v>376544.3141</v>
       </c>
       <c r="K35" s="1">
-        <v>406228.6956</v>
+        <v>406239.829</v>
       </c>
       <c r="L35" s="1">
-        <v>14.2556</v>
+        <v>14.256</v>
       </c>
       <c r="M35" s="1">
         <v>0.4</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.382</v>
@@ -10860,10 +10863,10 @@
         <v>371704.6211</v>
       </c>
       <c r="K36" s="1">
-        <v>416228.6956</v>
+        <v>416239.829</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2301</v>
+        <v>14.2305</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.9583</v>
@@ -10913,10 +10916,10 @@
         <v>368566.428</v>
       </c>
       <c r="K37" s="1">
-        <v>436487.2833</v>
+        <v>436498.4168</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1337</v>
+        <v>14.1341</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.2036</v>
@@ -10966,10 +10969,10 @@
         <v>386290.8373</v>
       </c>
       <c r="K38" s="1">
-        <v>446487.2833</v>
+        <v>446498.4168</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0771</v>
+        <v>14.0775</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.0486</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6405</v>
+        <v>13.6435</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7274</v>
+        <v>13.73</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9052</v>
+        <v>13.9064</v>
       </c>
       <c r="G3" s="1">
-        <v>14.0771</v>
+        <v>14.0775</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>97916.6299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8669</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9466</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8871</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8758</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8652</v>
       </c>
     </row>
   </sheetData>
